--- a/va_facility_data_2025-02-20/Bristol VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bristol%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bristol VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bristol%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfc5b1db4b7404eeb815b7cae2e83bbff"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf0dfe2d7d59a4c9d97b8ecfb997db771"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R05239c92a06f4ef5a38f874864726bdf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R336c1d8c321045a580faec48ca1a3c2d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0d5615764baa4f138282e62dd886b66d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc80d58b7b242424899cb351840ea68c9"/>
   </x:sheets>
 </x:workbook>
 </file>
